--- a/modified.xlsx
+++ b/modified.xlsx
@@ -14,42 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
-  <si>
-    <t>First Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+  <si>
+    <t>First</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
+    <t>Income</t>
+  </si>
+  <si>
     <t>Area Code</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
     <t>Jack</t>
   </si>
   <si>
-    <t>John "Da Man"</t>
-  </si>
-  <si>
     <t>Stephen</t>
   </si>
   <si>
-    <t>Joan "Danger", Anne</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Joan</t>
   </si>
   <si>
     <t>Doe</t>
@@ -68,21 +65,6 @@
   </si>
   <si>
     <t>Jet</t>
-  </si>
-  <si>
-    <t>120 jefferson st.</t>
-  </si>
-  <si>
-    <t>220 hobo Av.</t>
-  </si>
-  <si>
-    <t>120 Jefferson St.</t>
-  </si>
-  <si>
-    <t>7452 Terrace "At the Plaza" road</t>
-  </si>
-  <si>
-    <t>9th, at Terrace plc</t>
   </si>
   <si>
     <t>Riverside</t>
@@ -467,13 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,160 +474,124 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>8074</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>45000</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>9119</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>8075</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>91234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2">
-        <v>8074</v>
-      </c>
-      <c r="H2">
-        <v>45000</v>
+      <c r="F5">
+        <v>90000</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>298</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3">
-        <v>9119</v>
-      </c>
-      <c r="H3">
-        <v>18000</v>
+      <c r="F6">
+        <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4">
-        <v>8075</v>
-      </c>
-      <c r="H4">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5">
-        <v>91234</v>
-      </c>
-      <c r="H5">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6">
-        <v>298</v>
-      </c>
-      <c r="H6">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7">
-        <v>123</v>
-      </c>
-      <c r="H7">
+      <c r="F7">
         <v>68000</v>
       </c>
     </row>
